--- a/res/source/cfg_building2.xlsx
+++ b/res/source/cfg_building2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-6510" yWindow="495" windowWidth="21390" windowHeight="8865"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1Data_Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ErrorTest" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Sheet1!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1Data_Sheet1'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1613,7 +1613,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3669,11 +3669,11 @@
         <v>7302</v>
       </c>
       <c r="X10" t="e">
-        <f>Data_Sheet1!#REF!+100</f>
+        <f>'1Data_Sheet1'!#REF!+100</f>
         <v>#REF!</v>
       </c>
       <c r="Y10" t="e">
-        <f>Data_Sheet1!#REF!+100</f>
+        <f>'1Data_Sheet1'!#REF!+100</f>
         <v>#REF!</v>
       </c>
       <c r="Z10" s="6">

--- a/res/source/cfg_building2.xlsx
+++ b/res/source/cfg_building2.xlsx
@@ -25,7 +25,118 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I9" authorId="0">
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ClientDefine</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ServerDefine
+DBDefine</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ClientData</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ServerData</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DBData</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DataKey</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="189">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -933,19 +1044,27 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>CfgBuilding2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cfg_building2_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cfg_building2_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cfg_building2_d</t>
+    <t>导出配置：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CfgBuilding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfg_building_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfg_building_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfg_building_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${A}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +1072,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,6 +1166,19 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1607,23 +1739,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="8" customWidth="1"/>
@@ -1633,568 +1765,638 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="A2" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="51" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="27">
+        <f>H3+1</f>
+        <v>5</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="A4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="33" customFormat="1">
+      <c r="A5" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1">
+      <c r="A6" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="33" customFormat="1">
+      <c r="A7" s="29">
+        <v>99</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="32">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="30">
+        <v>101</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="54">
+        <v>-2147483647</v>
+      </c>
+      <c r="G8" s="54">
+        <v>-2147483647</v>
+      </c>
+      <c r="H8" s="55">
+        <v>-2147483648</v>
+      </c>
+      <c r="I8" s="30">
+        <v>-32768</v>
+      </c>
+      <c r="J8" s="30">
+        <v>1</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="30">
+        <v>102</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="30">
+        <v>127</v>
+      </c>
+      <c r="D9" s="30">
+        <v>32767</v>
+      </c>
+      <c r="E9" s="56">
+        <v>2147483647</v>
+      </c>
+      <c r="F9" s="54">
+        <v>2147483646</v>
+      </c>
+      <c r="G9" s="54">
+        <v>2147483646</v>
+      </c>
+      <c r="H9" s="55">
+        <v>2147483647</v>
+      </c>
+      <c r="I9" s="30">
+        <v>32767</v>
+      </c>
+      <c r="J9" s="30">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="30">
+        <v>103</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30">
+        <v>128</v>
+      </c>
+      <c r="D10" s="30">
+        <v>32768</v>
+      </c>
+      <c r="E10" s="56">
+        <v>2147483648</v>
+      </c>
+      <c r="F10" s="29">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="29">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="30">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="30">
         <v>126</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="28" customFormat="1" ht="51" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27">
+      <c r="K10" s="30" t="s">
         <v>4</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6" s="27">
-        <f>H6+1</f>
-        <v>5</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="33" customFormat="1">
-      <c r="A8" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="33" customFormat="1">
-      <c r="A9" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="33" customFormat="1">
-      <c r="A10" s="29">
-        <v>99</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="32">
-        <v>0</v>
-      </c>
-      <c r="D10" s="32">
-        <v>0</v>
-      </c>
-      <c r="E10" s="32">
-        <v>0</v>
-      </c>
-      <c r="F10" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="G10" s="32">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="H10" s="26">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="30">
-        <v>101</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>2</v>
+        <v>201</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="C11" s="30">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D11" s="30">
-        <v>1</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="54">
-        <v>-2147483647</v>
-      </c>
-      <c r="G11" s="54">
-        <v>-2147483647</v>
-      </c>
-      <c r="H11" s="55">
-        <v>-2147483648</v>
+        <v>32769</v>
+      </c>
+      <c r="E11" s="56">
+        <v>2147483649</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
       </c>
       <c r="I11" s="30">
-        <v>-32768</v>
+        <v>1</v>
       </c>
       <c r="J11" s="30">
-        <v>1</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>2</v>
+        <v>127</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30">
-        <v>102</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>3</v>
+        <v>202</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>5</v>
       </c>
       <c r="C12" s="30">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="D12" s="30">
-        <v>32767</v>
+        <v>65535</v>
       </c>
       <c r="E12" s="56">
-        <v>2147483647</v>
+        <v>4294967295</v>
       </c>
       <c r="F12" s="54">
-        <v>2147483646</v>
+        <v>-2147483647</v>
       </c>
       <c r="G12" s="54">
-        <v>2147483646</v>
+        <v>-2147483647</v>
       </c>
       <c r="H12" s="55">
-        <v>2147483647</v>
+        <v>-2147483648</v>
       </c>
       <c r="I12" s="30">
-        <v>32767</v>
+        <v>-32767</v>
       </c>
       <c r="J12" s="30">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>3</v>
+        <v>-128</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="30">
-        <v>103</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>4</v>
+        <v>203</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="C13" s="30">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="D13" s="30">
-        <v>32768</v>
+        <v>65535</v>
       </c>
       <c r="E13" s="56">
-        <v>2147483648</v>
-      </c>
-      <c r="F13" s="29">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="29">
-        <v>-1</v>
+        <v>4294967295</v>
+      </c>
+      <c r="F13" s="54">
+        <v>2147483646</v>
+      </c>
+      <c r="G13" s="54">
+        <v>2147483646</v>
+      </c>
+      <c r="H13" s="55">
+        <v>2147483647</v>
       </c>
       <c r="I13" s="30">
-        <v>-1</v>
+        <v>32766</v>
       </c>
       <c r="J13" s="30">
-        <v>126</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>4</v>
+        <v>-127</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="30">
-        <v>201</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>135</v>
+        <v>204</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="30">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="D14" s="30">
-        <v>32769</v>
-      </c>
-      <c r="E14" s="56">
-        <v>2147483649</v>
-      </c>
-      <c r="F14" s="29">
-        <v>1</v>
-      </c>
-      <c r="G14" s="29">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="30">
+        <v>20401</v>
+      </c>
+      <c r="F14" s="30">
+        <v>2</v>
+      </c>
+      <c r="G14" s="30">
+        <v>2</v>
       </c>
       <c r="H14" s="29">
-        <v>1</v>
-      </c>
-      <c r="I14" s="30">
-        <v>1</v>
+        <v>458894</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0</v>
       </c>
       <c r="J14" s="30">
-        <v>127</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="30">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="30">
-        <v>255</v>
+        <v>8</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="D15" s="30">
-        <v>65535</v>
-      </c>
-      <c r="E15" s="56">
-        <v>4294967295</v>
-      </c>
-      <c r="F15" s="54">
-        <v>-2147483647</v>
-      </c>
-      <c r="G15" s="54">
-        <v>-2147483647</v>
-      </c>
-      <c r="H15" s="55">
-        <v>-2147483648</v>
-      </c>
-      <c r="I15" s="30">
-        <v>-32767</v>
+        <v>6</v>
+      </c>
+      <c r="E15" s="30">
+        <v>30101</v>
+      </c>
+      <c r="F15" s="30">
+        <v>2</v>
+      </c>
+      <c r="G15" s="30">
+        <v>2</v>
+      </c>
+      <c r="H15" s="29">
+        <v>458894</v>
+      </c>
+      <c r="I15" s="24">
+        <v>234</v>
       </c>
       <c r="J15" s="30">
-        <v>-128</v>
+        <v>1</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="30">
-        <v>203</v>
-      </c>
-      <c r="B16" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="38" customFormat="1">
+      <c r="A16" s="36">
+        <v>401</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="36">
         <v>6</v>
       </c>
-      <c r="C16" s="30">
-        <v>255</v>
-      </c>
-      <c r="D16" s="30">
-        <v>65535</v>
-      </c>
-      <c r="E16" s="56">
-        <v>4294967295</v>
-      </c>
-      <c r="F16" s="54">
-        <v>2147483646</v>
-      </c>
-      <c r="G16" s="54">
-        <v>2147483646</v>
-      </c>
-      <c r="H16" s="55">
-        <v>2147483647</v>
-      </c>
-      <c r="I16" s="30">
-        <v>32766</v>
-      </c>
-      <c r="J16" s="30">
-        <v>-127</v>
-      </c>
-      <c r="K16" s="35" t="s">
+      <c r="E16" s="36">
+        <v>40101</v>
+      </c>
+      <c r="F16" s="36">
+        <v>-5.6</v>
+      </c>
+      <c r="G16" s="36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H16" s="29">
+        <v>458894</v>
+      </c>
+      <c r="I16" s="39">
+        <v>0</v>
+      </c>
+      <c r="J16" s="36">
+        <v>1</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="38" customFormat="1">
+      <c r="A17" s="36">
+        <v>402</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="30">
-        <v>204</v>
-      </c>
-      <c r="B17" s="35" t="s">
+      <c r="E17" s="36">
+        <v>40201</v>
+      </c>
+      <c r="F17" s="36">
+        <v>2</v>
+      </c>
+      <c r="G17" s="36">
+        <v>2</v>
+      </c>
+      <c r="H17" s="29">
+        <v>458894</v>
+      </c>
+      <c r="I17" s="39">
+        <v>0</v>
+      </c>
+      <c r="J17" s="36">
+        <v>1</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="38" customFormat="1">
+      <c r="A18" s="36">
+        <v>403</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="36">
         <v>7</v>
       </c>
-      <c r="C17" s="30">
-        <v>1</v>
-      </c>
-      <c r="D17" s="30">
-        <v>5</v>
-      </c>
-      <c r="E17" s="30">
-        <v>20401</v>
-      </c>
-      <c r="F17" s="30">
-        <v>2</v>
-      </c>
-      <c r="G17" s="30">
-        <v>2</v>
-      </c>
-      <c r="H17" s="29">
-        <v>458894</v>
-      </c>
-      <c r="I17" s="24">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30">
-        <v>1</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="30">
-        <v>301</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="E18" s="36">
+        <v>40301</v>
+      </c>
+      <c r="F18" s="36">
         <v>6</v>
       </c>
-      <c r="E18" s="30">
-        <v>30101</v>
-      </c>
-      <c r="F18" s="30">
-        <v>2</v>
-      </c>
-      <c r="G18" s="30">
-        <v>2</v>
+      <c r="G18" s="36">
+        <v>6</v>
       </c>
       <c r="H18" s="29">
         <v>458894</v>
       </c>
-      <c r="I18" s="24">
-        <v>234</v>
-      </c>
-      <c r="J18" s="30">
-        <v>1</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>8</v>
+      <c r="I18" s="39">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36">
+        <v>1</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="38" customFormat="1">
       <c r="A19" s="36">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="36">
-        <v>40101</v>
+        <v>40401</v>
       </c>
       <c r="F19" s="36">
-        <v>-5.6</v>
+        <v>2</v>
       </c>
       <c r="G19" s="36">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="H19" s="29">
         <v>458894</v>
@@ -2206,24 +2408,24 @@
         <v>1</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="38" customFormat="1">
       <c r="A20" s="36">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="36">
-        <v>40201</v>
+        <v>40501</v>
       </c>
       <c r="F20" s="36">
         <v>2</v>
@@ -2241,111 +2443,6 @@
         <v>1</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="38" customFormat="1">
-      <c r="A21" s="36">
-        <v>403</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="36">
-        <v>7</v>
-      </c>
-      <c r="E21" s="36">
-        <v>40301</v>
-      </c>
-      <c r="F21" s="36">
-        <v>6</v>
-      </c>
-      <c r="G21" s="36">
-        <v>6</v>
-      </c>
-      <c r="H21" s="29">
-        <v>458894</v>
-      </c>
-      <c r="I21" s="39">
-        <v>0</v>
-      </c>
-      <c r="J21" s="36">
-        <v>1</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="38" customFormat="1">
-      <c r="A22" s="36">
-        <v>404</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="36">
-        <v>5</v>
-      </c>
-      <c r="E22" s="36">
-        <v>40401</v>
-      </c>
-      <c r="F22" s="36">
-        <v>2</v>
-      </c>
-      <c r="G22" s="36">
-        <v>2</v>
-      </c>
-      <c r="H22" s="29">
-        <v>458894</v>
-      </c>
-      <c r="I22" s="39">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36">
-        <v>1</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="38" customFormat="1">
-      <c r="A23" s="36">
-        <v>405</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="36">
-        <v>4</v>
-      </c>
-      <c r="E23" s="36">
-        <v>40501</v>
-      </c>
-      <c r="F23" s="36">
-        <v>2</v>
-      </c>
-      <c r="G23" s="36">
-        <v>2</v>
-      </c>
-      <c r="H23" s="29">
-        <v>458894</v>
-      </c>
-      <c r="I23" s="39">
-        <v>0</v>
-      </c>
-      <c r="J23" s="36">
-        <v>1</v>
-      </c>
-      <c r="K23" s="37" t="s">
         <v>13</v>
       </c>
     </row>
